--- a/chapter5/chapter5.xlsx
+++ b/chapter5/chapter5.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songshgeo/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D465CB04-13CE-6E4D-B353-B1B071C42E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C757A4F-EF2A-904F-9815-F0D21EDE77FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1840" windowWidth="28240" windowHeight="17440" xr2:uid="{18E466F5-679F-024F-922C-2125EF863186}"/>
+    <workbookView xWindow="5180" yWindow="1840" windowWidth="28240" windowHeight="17440" activeTab="1" xr2:uid="{18E466F5-679F-024F-922C-2125EF863186}"/>
   </bookViews>
   <sheets>
     <sheet name="数据来源" sheetId="1" r:id="rId1"/>
+    <sheet name="八七分水方案配额" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>部门</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -176,6 +177,70 @@
   </si>
   <si>
     <t>降水量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规划需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘肃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁夏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内蒙古</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陕西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>津冀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1983年方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1987年方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多年平均耗水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄河水在地区总用水的占比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四川</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条目</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -242,7 +307,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -250,6 +315,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -568,7 +636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD95C452-D5A8-0840-AA36-F708EF1BC09E}">
   <dimension ref="A2:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -713,4 +781,230 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D68390A-DAF9-494A-80A8-015CDD5AAAA6}">
+  <dimension ref="A2:K7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>73.5</v>
+      </c>
+      <c r="E3">
+        <v>60.5</v>
+      </c>
+      <c r="F3">
+        <v>148.9</v>
+      </c>
+      <c r="G3">
+        <v>115</v>
+      </c>
+      <c r="H3">
+        <v>60.8</v>
+      </c>
+      <c r="I3">
+        <v>111.8</v>
+      </c>
+      <c r="J3">
+        <v>84</v>
+      </c>
+      <c r="K3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>30</v>
+      </c>
+      <c r="E4">
+        <v>40</v>
+      </c>
+      <c r="F4">
+        <v>62</v>
+      </c>
+      <c r="G4">
+        <v>43</v>
+      </c>
+      <c r="H4">
+        <v>52</v>
+      </c>
+      <c r="I4">
+        <v>58</v>
+      </c>
+      <c r="J4">
+        <v>75</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5">
+        <v>14.1</v>
+      </c>
+      <c r="C5">
+        <v>0.4</v>
+      </c>
+      <c r="D5">
+        <v>30.4</v>
+      </c>
+      <c r="E5">
+        <v>40</v>
+      </c>
+      <c r="F5">
+        <v>58.6</v>
+      </c>
+      <c r="G5">
+        <v>38</v>
+      </c>
+      <c r="H5">
+        <v>43.1</v>
+      </c>
+      <c r="I5">
+        <v>55.4</v>
+      </c>
+      <c r="J5">
+        <v>70</v>
+      </c>
+      <c r="K5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6">
+        <v>12.03</v>
+      </c>
+      <c r="C6">
+        <v>0.25</v>
+      </c>
+      <c r="D6">
+        <v>25.8</v>
+      </c>
+      <c r="E6">
+        <v>36.58</v>
+      </c>
+      <c r="F6">
+        <v>61.97</v>
+      </c>
+      <c r="G6">
+        <v>21.16</v>
+      </c>
+      <c r="H6">
+        <v>11.97</v>
+      </c>
+      <c r="I6">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="J6">
+        <v>77.87</v>
+      </c>
+      <c r="K6">
+        <v>5.85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.48120000000000002</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.30790000000000001</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.58450000000000002</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.47820000000000001</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.73550000000000004</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.44390000000000002</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.2477</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0.34410000000000002</v>
+      </c>
+      <c r="K7" s="3">
+        <v>3.1099999999999999E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>